--- a/DATA/data préparé.xlsx
+++ b/DATA/data préparé.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\streamlit_app\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2BEE0A-C458-400F-A7B4-AAFD44C721E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21343D3-BA24-46CF-8D03-8610AD6814A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{6EE317B6-CC55-42E2-B72E-ED46EF0D1749}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="11" xr2:uid="{6EE317B6-CC55-42E2-B72E-ED46EF0D1749}"/>
   </bookViews>
   <sheets>
     <sheet name="QT_avant" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
-  <si>
-    <t>Turb 
-(NTU)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>pH</t>
   </si>
@@ -118,10 +114,6 @@
     </r>
   </si>
   <si>
-    <t>MES 
-(mg/l)</t>
-  </si>
-  <si>
     <t>TOC
 (mg/l)</t>
   </si>
@@ -139,51 +131,6 @@
   </si>
   <si>
     <t>pH Entrée F,G,H,I,J</t>
-  </si>
-  <si>
-    <t>Turb
-(NTU)</t>
-  </si>
-  <si>
-    <r>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-(mg/l)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -231,15 +178,7 @@
     </r>
   </si>
   <si>
-    <t>TDS
-(mg/l)</t>
-  </si>
-  <si>
     <t>T (°C)</t>
-  </si>
-  <si>
-    <t>Cond. (mS/cm)
-à 25° C</t>
   </si>
   <si>
     <r>
@@ -305,10 +244,6 @@
   </si>
   <si>
     <t>Cl2 libre (mg/l) E,F,G,H</t>
-  </si>
-  <si>
-    <t>MES
- (mg/l)</t>
   </si>
   <si>
     <t>SDI 15 P1</t>
@@ -569,6 +504,26 @@
   </si>
   <si>
     <t>TDS</t>
+  </si>
+  <si>
+    <r>
+      <t>Fe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3+</t>
+    </r>
+  </si>
+  <si>
+    <t>Cond</t>
   </si>
 </sst>
 </file>
@@ -1787,28 +1742,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
@@ -4632,52 +4587,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="M1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="65" t="s">
+      <c r="N1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="O1" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="P1" s="65" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.3">
@@ -10093,7 +10048,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10101,48 +10056,49 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -14567,8 +14523,8 @@
   </sheetPr>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14578,37 +14534,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D1" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -18432,28 +18388,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
@@ -21299,28 +21255,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
@@ -24144,7 +24100,7 @@
   </sheetPr>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -24158,37 +24114,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E1" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="78" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -28005,8 +27961,8 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63:G108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28016,25 +27972,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -30698,8 +30654,8 @@
   </sheetPr>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30712,46 +30668,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="K1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="L1" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="N1" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -35541,7 +35497,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35551,37 +35507,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -39359,7 +39315,7 @@
   <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O96" sqref="O96:O97"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39369,49 +39325,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D1" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="L1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="M1" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="N1" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="O1" s="72" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="72" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.3">
@@ -44539,37 +44495,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
